--- a/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3410EAEF-1052-4EF7-93B0-3937CFCBE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA294F0-F32C-4B87-96E5-33CFF13FA08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E09D59AD-E125-48EF-84EF-07BFF199A258}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43443067-AD71-41A6-904D-B7175C1F9AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,952 +77,958 @@
     <t>24,83%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>77,24%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>73,45%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>24,01%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>73,34%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>75,99%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>22,78%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>77,22%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
@@ -1031,277 +1037,265 @@
     <t>43,84%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>39,97%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>60,03%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>34,66%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>60,08%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
   </si>
   <si>
     <t>34,58%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>60,21%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
   </si>
   <si>
     <t>65,42%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>39,1%</t>
@@ -1310,28 +1304,25 @@
     <t>36,74%</t>
   </si>
   <si>
-    <t>44,88%</t>
+    <t>45,56%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>55,12%</t>
+    <t>54,44%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -1340,10 +1331,7 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>63,42%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CA21BB-5DFB-47A9-B06B-54F7BCC56007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF3F227-9BD1-43E0-B3B2-7925898390C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2040,7 +2028,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -2049,10 +2037,10 @@
         <v>166336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>36</v>
@@ -2088,10 +2076,10 @@
         <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>405</v>
@@ -2100,13 +2088,13 @@
         <v>409260</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>855</v>
@@ -2377,10 +2365,10 @@
         <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2383,13 @@
         <v>547452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>452</v>
@@ -2410,13 +2398,13 @@
         <v>444023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>967</v>
@@ -2425,13 +2413,13 @@
         <v>991475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2487,13 @@
         <v>161082</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>268</v>
@@ -2514,13 +2502,13 @@
         <v>283028</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>441</v>
@@ -2529,13 +2517,13 @@
         <v>444109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2538,13 @@
         <v>781140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>729</v>
@@ -2565,13 +2553,13 @@
         <v>755584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1550</v>
@@ -2580,13 +2568,13 @@
         <v>1536725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2642,13 @@
         <v>595684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>959</v>
@@ -2669,28 +2657,28 @@
         <v>986706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1559</v>
       </c>
       <c r="N19" s="7">
-        <v>1582389</v>
+        <v>1582390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2693,13 @@
         <v>2680860</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2338</v>
@@ -2720,13 +2708,13 @@
         <v>2392492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>4952</v>
@@ -2735,13 +2723,13 @@
         <v>5073351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2771,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2797,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE8D365-A0FA-44FA-A0FC-A336849F8A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B05B5BC-1417-416A-82B7-9ABAF52B174B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2930,13 @@
         <v>19567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -2957,13 +2945,13 @@
         <v>38098</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -2972,13 +2960,13 @@
         <v>57666</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2981,13 @@
         <v>94365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -3008,13 +2996,13 @@
         <v>73807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -3023,13 +3011,13 @@
         <v>168171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3085,13 @@
         <v>112185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -3112,13 +3100,13 @@
         <v>198535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -3127,13 +3115,13 @@
         <v>310721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,10 +3136,10 @@
         <v>471700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>152</v>
@@ -3264,7 +3252,7 @@
         <v>296</v>
       </c>
       <c r="I10" s="7">
-        <v>324128</v>
+        <v>324129</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>162</v>
@@ -3366,7 +3354,7 @@
         <v>938</v>
       </c>
       <c r="I12" s="7">
-        <v>1030192</v>
+        <v>1030193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3550,7 +3538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,10 +3568,10 @@
         <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>499</v>
@@ -3592,10 +3580,10 @@
         <v>533874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>202</v>
@@ -3634,7 +3622,7 @@
         <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>1410</v>
@@ -3643,13 +3631,13 @@
         <v>1461845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3753,7 @@
         <v>2606</v>
       </c>
       <c r="D20" s="7">
-        <v>2766261</v>
+        <v>2766260</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>219</v>
@@ -3795,7 +3783,7 @@
         <v>4868</v>
       </c>
       <c r="N20" s="7">
-        <v>5207038</v>
+        <v>5207037</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>45</v>
@@ -3816,7 +3804,7 @@
         <v>3193</v>
       </c>
       <c r="D21" s="7">
-        <v>3409688</v>
+        <v>3409687</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3846,7 +3834,7 @@
         <v>6487</v>
       </c>
       <c r="N21" s="7">
-        <v>6964131</v>
+        <v>6964130</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3860,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22CE98-584E-4FC1-A876-1171E3E00F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70AD8BF-A2B0-4112-ACC8-54510093090D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4315,13 +4303,13 @@
         <v>189879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>280</v>
@@ -4330,13 +4318,13 @@
         <v>314999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -4345,13 +4333,13 @@
         <v>504879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4354,13 @@
         <v>826086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>694</v>
@@ -4381,13 +4369,13 @@
         <v>724841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1455</v>
@@ -4396,13 +4384,13 @@
         <v>1550926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4458,13 @@
         <v>130331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -4485,13 +4473,13 @@
         <v>206681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -4500,13 +4488,13 @@
         <v>337012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4509,13 @@
         <v>622395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>547</v>
@@ -4536,13 +4524,13 @@
         <v>571817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>1116</v>
@@ -4551,13 +4539,13 @@
         <v>1194212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4613,13 @@
         <v>168076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -4640,13 +4628,13 @@
         <v>276661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>403</v>
@@ -4655,13 +4643,13 @@
         <v>444737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4664,13 @@
         <v>763813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>716</v>
@@ -4691,13 +4679,13 @@
         <v>760930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1476</v>
@@ -4706,13 +4694,13 @@
         <v>1524743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4768,13 @@
         <v>625326</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>903</v>
@@ -4795,13 +4783,13 @@
         <v>1014774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1509</v>
@@ -4810,13 +4798,13 @@
         <v>1640099</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4819,13 @@
         <v>2744304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>2413</v>
@@ -4846,13 +4834,13 @@
         <v>2507215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>5015</v>
@@ -4861,13 +4849,13 @@
         <v>5251519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5DD22D-F0E9-4F5A-B3BF-AED891D270B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C015A9-ECD1-45AB-A5A8-744744EADD01}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5056,13 @@
         <v>44711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -5083,13 +5071,13 @@
         <v>52253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -5098,13 +5086,13 @@
         <v>96964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5107,13 @@
         <v>57271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -5134,13 +5122,13 @@
         <v>78480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -5149,13 +5137,13 @@
         <v>135751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5211,13 @@
         <v>159116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>463</v>
@@ -5238,13 +5226,13 @@
         <v>236710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>681</v>
@@ -5253,13 +5241,13 @@
         <v>395825</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5262,13 @@
         <v>389947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -5289,13 +5277,13 @@
         <v>356252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>926</v>
@@ -5304,13 +5292,13 @@
         <v>746200</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5366,13 @@
         <v>241298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>648</v>
@@ -5393,13 +5381,13 @@
         <v>396044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>920</v>
@@ -5408,13 +5396,13 @@
         <v>637342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5417,13 @@
         <v>795365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>865</v>
@@ -5444,13 +5432,13 @@
         <v>661802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>1555</v>
@@ -5459,13 +5447,13 @@
         <v>1457167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,10 +5521,10 @@
         <v>177651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>385</v>
@@ -5584,13 +5572,13 @@
         <v>551121</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>682</v>
@@ -5599,13 +5587,13 @@
         <v>528482</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>1176</v>
@@ -5614,13 +5602,13 @@
         <v>1079602</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,7 +5664,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5676,13 @@
         <v>274094</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>707</v>
@@ -5703,13 +5691,13 @@
         <v>456867</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>1028</v>
@@ -5718,13 +5706,13 @@
         <v>730961</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5727,13 @@
         <v>691309</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>852</v>
@@ -5754,13 +5742,13 @@
         <v>691328</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>1537</v>
@@ -5769,13 +5757,13 @@
         <v>1382637</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5831,13 @@
         <v>896869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>2298</v>
@@ -5858,13 +5846,13 @@
         <v>1487154</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>3348</v>
@@ -5873,13 +5861,13 @@
         <v>2384023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,43 +5882,43 @@
         <v>2485013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>3059</v>
       </c>
       <c r="I20" s="7">
-        <v>2316342</v>
+        <v>2316343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>5382</v>
       </c>
       <c r="N20" s="7">
-        <v>4801357</v>
+        <v>4801356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5945,7 @@
         <v>5357</v>
       </c>
       <c r="I21" s="7">
-        <v>3803496</v>
+        <v>3803497</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5972,7 +5960,7 @@
         <v>8730</v>
       </c>
       <c r="N21" s="7">
-        <v>7185380</v>
+        <v>7185379</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5986,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA294F0-F32C-4B87-96E5-33CFF13FA08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85877879-EC6E-4145-B86C-D2A507F08DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43443067-AD71-41A6-904D-B7175C1F9AB7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BDD1177-100C-45E9-B638-13DF91707267}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>24,83%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,928 +107,904 @@
     <t>75,17%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>32,38%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>77,35%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>73,45%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>24,51%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>27,29%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>72,71%</t>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>76,2%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
@@ -1743,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF3F227-9BD1-43E0-B3B2-7925898390C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1C2E3-F13A-4AC8-A1CA-F6B691C7039C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2040,10 +2016,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>291</v>
@@ -2052,13 +2028,13 @@
         <v>291243</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2049,13 @@
         <v>453747</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>405</v>
@@ -2088,13 +2064,13 @@
         <v>409260</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>855</v>
@@ -2103,13 +2079,13 @@
         <v>863007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2141,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2177,13 +2153,13 @@
         <v>149995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -2192,13 +2168,13 @@
         <v>258429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>385</v>
@@ -2207,13 +2183,13 @@
         <v>408424</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2204,13 @@
         <v>811805</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>669</v>
@@ -2243,13 +2219,13 @@
         <v>709964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1419</v>
@@ -2258,13 +2234,13 @@
         <v>1521769</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2296,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2332,13 +2308,13 @@
         <v>131057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -2347,13 +2323,13 @@
         <v>239818</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>370</v>
@@ -2362,13 +2338,13 @@
         <v>370875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2359,7 @@
         <v>547452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>78</v>
@@ -2660,10 +2636,10 @@
         <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1559</v>
@@ -2672,13 +2648,13 @@
         <v>1582390</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,16 +2666,16 @@
         <v>2614</v>
       </c>
       <c r="D20" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2338</v>
@@ -2708,13 +2684,13 @@
         <v>2392492</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>4952</v>
@@ -2723,13 +2699,13 @@
         <v>5073351</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2717,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2785,7 +2761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B05B5BC-1417-416A-82B7-9ABAF52B174B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6B0ACA-9EAE-4E21-9F70-AF38C2B2EF26}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2906,13 @@
         <v>19567</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -2945,13 +2921,13 @@
         <v>38098</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -2960,13 +2936,13 @@
         <v>57666</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2957,13 @@
         <v>94365</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>65</v>
@@ -2996,13 +2972,13 @@
         <v>73807</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -3011,13 +2987,13 @@
         <v>168171</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3061,13 @@
         <v>112185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -3100,13 +3076,13 @@
         <v>198535</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -3115,13 +3091,13 @@
         <v>310721</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3112,13 @@
         <v>471700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>364</v>
@@ -3151,13 +3127,13 @@
         <v>384736</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
@@ -3166,13 +3142,13 @@
         <v>856435</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3204,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3240,28 +3216,28 @@
         <v>210071</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>296</v>
       </c>
       <c r="I10" s="7">
-        <v>324129</v>
+        <v>324128</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>486</v>
@@ -3270,13 +3246,13 @@
         <v>534200</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3267,13 @@
         <v>803469</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3306,13 +3282,13 @@
         <v>706064</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1385</v>
@@ -3321,13 +3297,13 @@
         <v>1509533</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3330,7 @@
         <v>938</v>
       </c>
       <c r="I12" s="7">
-        <v>1030193</v>
+        <v>1030192</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3383,7 +3359,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3395,13 +3371,13 @@
         <v>100680</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -3410,13 +3386,13 @@
         <v>219953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -3425,13 +3401,13 @@
         <v>320633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3422,13 @@
         <v>653833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
@@ -3461,13 +3437,13 @@
         <v>557221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>1101</v>
@@ -3476,13 +3452,13 @@
         <v>1211054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3526,13 @@
         <v>200923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -3565,13 +3541,13 @@
         <v>332951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>499</v>
@@ -3580,13 +3556,13 @@
         <v>533874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3577,13 @@
         <v>742895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>688</v>
@@ -3616,13 +3592,13 @@
         <v>718950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1410</v>
@@ -3631,13 +3607,13 @@
         <v>1461845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3681,13 @@
         <v>643427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>1032</v>
@@ -3720,13 +3696,13 @@
         <v>1113667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>1619</v>
@@ -3735,13 +3711,13 @@
         <v>1757093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,16 +3729,16 @@
         <v>2606</v>
       </c>
       <c r="D20" s="7">
-        <v>2766260</v>
+        <v>2766261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>2262</v>
@@ -3771,28 +3747,28 @@
         <v>2440777</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>4868</v>
       </c>
       <c r="N20" s="7">
-        <v>5207037</v>
+        <v>5207038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,7 +3780,7 @@
         <v>3193</v>
       </c>
       <c r="D21" s="7">
-        <v>3409687</v>
+        <v>3409688</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3834,7 +3810,7 @@
         <v>6487</v>
       </c>
       <c r="N21" s="7">
-        <v>6964130</v>
+        <v>6964131</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3848,7 +3824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70AD8BF-A2B0-4112-ACC8-54510093090D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FA09B5-CD7E-4AD3-8D70-F60CC699732E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +3969,13 @@
         <v>33062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -4008,13 +3984,13 @@
         <v>33987</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -4023,13 +3999,13 @@
         <v>67050</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4020,13 @@
         <v>81525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -4059,13 +4035,13 @@
         <v>78272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>162</v>
@@ -4074,13 +4050,13 @@
         <v>159796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4124,13 @@
         <v>103978</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -4163,13 +4139,13 @@
         <v>182444</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>274</v>
@@ -4178,13 +4154,13 @@
         <v>286422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4175,13 @@
         <v>450484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -4214,13 +4190,13 @@
         <v>371357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>806</v>
@@ -4229,13 +4205,13 @@
         <v>821841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4267,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4303,13 +4279,13 @@
         <v>189879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>280</v>
@@ -4318,13 +4294,13 @@
         <v>314999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -4333,13 +4309,13 @@
         <v>504879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4330,13 @@
         <v>826086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>694</v>
@@ -4369,13 +4345,13 @@
         <v>724841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1455</v>
@@ -4384,13 +4360,13 @@
         <v>1550926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,7 +4422,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4458,13 +4434,13 @@
         <v>130331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -4473,13 +4449,13 @@
         <v>206681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -4488,13 +4464,13 @@
         <v>337012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4485,13 @@
         <v>622395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>547</v>
@@ -4524,13 +4500,13 @@
         <v>571817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1116</v>
@@ -4539,13 +4515,13 @@
         <v>1194212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4589,13 @@
         <v>168076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -4628,13 +4604,13 @@
         <v>276661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>403</v>
@@ -4643,13 +4619,13 @@
         <v>444737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4640,13 @@
         <v>763813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>716</v>
@@ -4679,13 +4655,13 @@
         <v>760930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>1476</v>
@@ -4694,13 +4670,13 @@
         <v>1524743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4744,13 @@
         <v>625326</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>903</v>
@@ -4783,13 +4759,13 @@
         <v>1014774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>1509</v>
@@ -4798,13 +4774,13 @@
         <v>1640099</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4795,13 @@
         <v>2744304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>2413</v>
@@ -4834,13 +4810,13 @@
         <v>2507215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>5015</v>
@@ -4849,13 +4825,13 @@
         <v>5251519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C015A9-ECD1-45AB-A5A8-744744EADD01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A83E94-A498-4DFB-AC64-9F7173F30224}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5032,13 @@
         <v>44711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -5071,13 +5047,13 @@
         <v>52253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -5086,13 +5062,13 @@
         <v>96964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5083,13 @@
         <v>57271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -5122,13 +5098,13 @@
         <v>78480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -5137,13 +5113,13 @@
         <v>135751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5187,13 @@
         <v>159116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>463</v>
@@ -5226,13 +5202,13 @@
         <v>236710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>681</v>
@@ -5241,13 +5217,13 @@
         <v>395825</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5238,13 @@
         <v>389947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -5277,13 +5253,13 @@
         <v>356252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>926</v>
@@ -5292,13 +5268,13 @@
         <v>746200</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,7 +5330,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5366,13 +5342,13 @@
         <v>241298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>648</v>
@@ -5381,13 +5357,13 @@
         <v>396044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>920</v>
@@ -5396,13 +5372,13 @@
         <v>637342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5393,13 @@
         <v>795365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>865</v>
@@ -5432,13 +5408,13 @@
         <v>661802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>1555</v>
@@ -5447,13 +5423,13 @@
         <v>1457167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5485,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5521,13 +5497,13 @@
         <v>177651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>364</v>
@@ -5536,13 +5512,13 @@
         <v>345279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>546</v>
@@ -5551,13 +5527,13 @@
         <v>522930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5548,13 @@
         <v>551121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>682</v>
@@ -5587,13 +5563,13 @@
         <v>528482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>1176</v>
@@ -5602,13 +5578,13 @@
         <v>1079602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5652,13 @@
         <v>274094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>707</v>
@@ -5691,13 +5667,13 @@
         <v>456867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>1028</v>
@@ -5706,13 +5682,13 @@
         <v>730961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5703,13 @@
         <v>691309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>852</v>
@@ -5742,13 +5718,13 @@
         <v>691328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>1537</v>
@@ -5757,13 +5733,13 @@
         <v>1382637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5807,13 @@
         <v>896869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>2298</v>
@@ -5846,13 +5822,13 @@
         <v>1487154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>3348</v>
@@ -5861,13 +5837,13 @@
         <v>2384023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5858,13 @@
         <v>2485013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>3059</v>
@@ -5897,13 +5873,13 @@
         <v>2316343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>5382</v>
@@ -5912,13 +5888,13 @@
         <v>4801356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +5950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85877879-EC6E-4145-B86C-D2A507F08DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{817663E0-AE8B-4535-A709-38E31964CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BDD1177-100C-45E9-B638-13DF91707267}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5432DD39-76A1-4571-A746-AC3DB989464A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>24,83%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>75,17%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1165 +140,1198 @@
     <t>21,59%</t>
   </si>
   <si>
-    <t>18,42%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>29,95%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>70,05%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
+    <t>71,77%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>54,44%</t>
+    <t>55,12%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -1307,7 +1340,10 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>63,42%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1C2E3-F13A-4AC8-A1CA-F6B691C7039C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09ACFE7-F4C2-402E-99CD-705EF50B918E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,7 +2040,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -2013,13 +2049,13 @@
         <v>166336</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>291</v>
@@ -2028,13 +2064,13 @@
         <v>291243</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2085,13 @@
         <v>453747</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>405</v>
@@ -2064,13 +2100,13 @@
         <v>409260</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>855</v>
@@ -2079,13 +2115,13 @@
         <v>863007</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2177,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2189,13 @@
         <v>149995</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -2168,13 +2204,13 @@
         <v>258429</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>385</v>
@@ -2183,13 +2219,13 @@
         <v>408424</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2240,13 @@
         <v>811805</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>669</v>
@@ -2219,13 +2255,13 @@
         <v>709964</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1419</v>
@@ -2234,13 +2270,13 @@
         <v>1521769</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2344,13 @@
         <v>131057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -2323,13 +2359,13 @@
         <v>239818</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>370</v>
@@ -2338,13 +2374,13 @@
         <v>370875</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2395,13 @@
         <v>547452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>452</v>
@@ -2374,13 +2410,13 @@
         <v>444023</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>967</v>
@@ -2389,13 +2425,13 @@
         <v>991475</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2499,13 @@
         <v>161082</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>268</v>
@@ -2478,13 +2514,13 @@
         <v>283028</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>441</v>
@@ -2493,13 +2529,13 @@
         <v>444109</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2550,13 @@
         <v>781140</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>729</v>
@@ -2529,13 +2565,13 @@
         <v>755584</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1550</v>
@@ -2544,13 +2580,13 @@
         <v>1536725</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2654,13 @@
         <v>595684</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>959</v>
@@ -2633,28 +2669,28 @@
         <v>986706</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>1559</v>
       </c>
       <c r="N19" s="7">
-        <v>1582390</v>
+        <v>1582389</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,16 +2702,16 @@
         <v>2614</v>
       </c>
       <c r="D20" s="7">
-        <v>2680859</v>
+        <v>2680860</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>2338</v>
@@ -2684,13 +2720,13 @@
         <v>2392492</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>4952</v>
@@ -2717,7 +2753,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2747,7 +2783,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2782,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6B0ACA-9EAE-4E21-9F70-AF38C2B2EF26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203BE488-B6FF-4B51-8713-602605747297}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3067,7 +3103,7 @@
         <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -3076,13 +3112,13 @@
         <v>198535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -3091,13 +3127,13 @@
         <v>310721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3148,13 @@
         <v>471700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>364</v>
@@ -3127,13 +3163,13 @@
         <v>384736</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
@@ -3142,13 +3178,13 @@
         <v>856435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,7 +3240,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3216,13 +3252,13 @@
         <v>210071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>296</v>
@@ -3231,13 +3267,13 @@
         <v>324128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>486</v>
@@ -3246,13 +3282,13 @@
         <v>534200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3303,13 @@
         <v>803469</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3282,13 +3318,13 @@
         <v>706064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1385</v>
@@ -3297,13 +3333,13 @@
         <v>1509533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3371,13 +3407,13 @@
         <v>100680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -3386,13 +3422,13 @@
         <v>219953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -3401,13 +3437,13 @@
         <v>320633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3458,13 @@
         <v>653833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
@@ -3437,13 +3473,13 @@
         <v>557221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1101</v>
@@ -3452,13 +3488,13 @@
         <v>1211054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3562,13 @@
         <v>200923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -3541,13 +3577,13 @@
         <v>332951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>499</v>
@@ -3556,13 +3592,13 @@
         <v>533874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3613,13 @@
         <v>742895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>688</v>
@@ -3592,13 +3628,13 @@
         <v>718950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>1410</v>
@@ -3607,13 +3643,13 @@
         <v>1461845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3717,13 @@
         <v>643427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>1032</v>
@@ -3696,13 +3732,13 @@
         <v>1113667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1619</v>
@@ -3711,13 +3747,13 @@
         <v>1757093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3768,13 @@
         <v>2766261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>2262</v>
@@ -3747,13 +3783,13 @@
         <v>2440777</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>4868</v>
@@ -3762,13 +3798,13 @@
         <v>5207038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FA09B5-CD7E-4AD3-8D70-F60CC699732E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A4443-CDFE-498A-9577-632E26A5AB47}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +4005,13 @@
         <v>33062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -3984,13 +4020,13 @@
         <v>33987</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3999,13 +4035,13 @@
         <v>67050</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4056,13 @@
         <v>81525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -4035,13 +4071,13 @@
         <v>78272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>162</v>
@@ -4050,13 +4086,13 @@
         <v>159796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4160,13 @@
         <v>103978</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -4139,13 +4175,13 @@
         <v>182444</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>274</v>
@@ -4154,13 +4190,13 @@
         <v>286422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4211,13 @@
         <v>450484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>373</v>
@@ -4190,13 +4226,13 @@
         <v>371357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>806</v>
@@ -4205,13 +4241,13 @@
         <v>821841</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4303,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4279,13 +4315,13 @@
         <v>189879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>280</v>
@@ -4294,13 +4330,13 @@
         <v>314999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>464</v>
@@ -4309,13 +4345,13 @@
         <v>504879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4366,13 @@
         <v>826086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>694</v>
@@ -4345,13 +4381,13 @@
         <v>724841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1455</v>
@@ -4360,10 +4396,10 @@
         <v>1550926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>275</v>
@@ -4422,7 +4458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4577,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4595,7 +4631,7 @@
         <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -4604,13 +4640,13 @@
         <v>276661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>403</v>
@@ -4619,13 +4655,13 @@
         <v>444737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4676,13 @@
         <v>763813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>716</v>
@@ -4655,13 +4691,13 @@
         <v>760930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1476</v>
@@ -4670,13 +4706,13 @@
         <v>1524743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4780,13 @@
         <v>625326</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>903</v>
@@ -4759,13 +4795,13 @@
         <v>1014774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>1509</v>
@@ -4774,13 +4810,13 @@
         <v>1640099</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4831,13 @@
         <v>2744304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>2413</v>
@@ -4810,13 +4846,13 @@
         <v>2507215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>5015</v>
@@ -4825,13 +4861,13 @@
         <v>5251519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A83E94-A498-4DFB-AC64-9F7173F30224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84DBCD4-4669-4CEB-9CF7-B32288CEF5D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,13 +5068,13 @@
         <v>44711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -5047,13 +5083,13 @@
         <v>52253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -5062,13 +5098,13 @@
         <v>96964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5119,13 @@
         <v>57271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -5098,13 +5134,13 @@
         <v>78480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>188</v>
@@ -5113,13 +5149,13 @@
         <v>135751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5223,13 @@
         <v>159116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>463</v>
@@ -5202,13 +5238,13 @@
         <v>236710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>681</v>
@@ -5217,13 +5253,13 @@
         <v>395825</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5274,13 @@
         <v>389947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -5253,13 +5289,13 @@
         <v>356252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>926</v>
@@ -5268,13 +5304,13 @@
         <v>746200</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5366,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5342,13 +5378,13 @@
         <v>241298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>648</v>
@@ -5357,13 +5393,13 @@
         <v>396044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>920</v>
@@ -5372,13 +5408,13 @@
         <v>637342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5429,13 @@
         <v>795365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>865</v>
@@ -5408,13 +5444,13 @@
         <v>661802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>1555</v>
@@ -5423,13 +5459,13 @@
         <v>1457167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,7 +5521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5497,13 +5533,13 @@
         <v>177651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>364</v>
@@ -5512,13 +5548,13 @@
         <v>345279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>546</v>
@@ -5527,13 +5563,13 @@
         <v>522930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5584,13 @@
         <v>551121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>682</v>
@@ -5563,13 +5599,13 @@
         <v>528482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>1176</v>
@@ -5578,13 +5614,13 @@
         <v>1079602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5652,13 +5688,13 @@
         <v>274094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>707</v>
@@ -5667,13 +5703,13 @@
         <v>456867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>1028</v>
@@ -5682,13 +5718,13 @@
         <v>730961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5739,13 @@
         <v>691309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>852</v>
@@ -5718,13 +5754,13 @@
         <v>691328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>1537</v>
@@ -5733,13 +5769,13 @@
         <v>1382637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5843,13 @@
         <v>896869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>2298</v>
@@ -5822,13 +5858,13 @@
         <v>1487154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>3348</v>
@@ -5837,13 +5873,13 @@
         <v>2384023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,43 +5894,43 @@
         <v>2485013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>3059</v>
       </c>
       <c r="I20" s="7">
-        <v>2316343</v>
+        <v>2316342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>5382</v>
       </c>
       <c r="N20" s="7">
-        <v>4801356</v>
+        <v>4801357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,7 +5957,7 @@
         <v>5357</v>
       </c>
       <c r="I21" s="7">
-        <v>3803497</v>
+        <v>3803496</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5936,7 +5972,7 @@
         <v>8730</v>
       </c>
       <c r="N21" s="7">
-        <v>7185379</v>
+        <v>7185380</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{817663E0-AE8B-4535-A709-38E31964CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45138BE-4C59-4A7B-9D17-02E2861EC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5432DD39-76A1-4571-A746-AC3DB989464A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C13CBBA1-B050-46B1-9B4D-F25D809638F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,804 +68,669 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>74,77%</t>
   </si>
   <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>38,19%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
     <t>77,24%</t>
   </si>
   <si>
@@ -1028,322 +893,268 @@
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09ACFE7-F4C2-402E-99CD-705EF50B918E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A098EBC-7CC4-44F8-9636-67C720C572C2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D4" s="7">
-        <v>28643</v>
+        <v>153550</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="I4" s="7">
-        <v>39095</v>
+        <v>205431</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>72</v>
+        <v>363</v>
       </c>
       <c r="N4" s="7">
-        <v>67737</v>
+        <v>358981</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="D5" s="7">
-        <v>86715</v>
+        <v>540462</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="I5" s="7">
-        <v>73660</v>
+        <v>482920</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>161</v>
+        <v>1016</v>
       </c>
       <c r="N5" s="7">
-        <v>160376</v>
+        <v>1023382</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7">
-        <v>124907</v>
+        <v>149995</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2040,37 +1851,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="I7" s="7">
-        <v>166336</v>
+        <v>258429</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="N7" s="7">
-        <v>291243</v>
+        <v>408424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,49 +1890,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="D8" s="7">
-        <v>453747</v>
+        <v>811805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>405</v>
+        <v>669</v>
       </c>
       <c r="I8" s="7">
-        <v>409260</v>
+        <v>709964</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>855</v>
+        <v>1419</v>
       </c>
       <c r="N8" s="7">
-        <v>863007</v>
+        <v>1521769</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1956,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,55 +1988,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7">
-        <v>149995</v>
+        <v>131057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>258429</v>
+        <v>239818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="N10" s="7">
-        <v>408424</v>
+        <v>370875</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2045,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>750</v>
+        <v>515</v>
       </c>
       <c r="D11" s="7">
-        <v>811805</v>
+        <v>547452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>669</v>
+        <v>452</v>
       </c>
       <c r="I11" s="7">
-        <v>709964</v>
+        <v>444023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1419</v>
+        <v>967</v>
       </c>
       <c r="N11" s="7">
-        <v>1521769</v>
+        <v>991475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2111,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2126,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,55 +2143,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D13" s="7">
-        <v>131057</v>
+        <v>161082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="I13" s="7">
-        <v>239818</v>
+        <v>283028</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="N13" s="7">
-        <v>370875</v>
+        <v>444109</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,49 +2200,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>515</v>
+        <v>821</v>
       </c>
       <c r="D14" s="7">
-        <v>547452</v>
+        <v>781140</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>452</v>
+        <v>729</v>
       </c>
       <c r="I14" s="7">
-        <v>444023</v>
+        <v>755584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>967</v>
+        <v>1550</v>
       </c>
       <c r="N14" s="7">
-        <v>991475</v>
+        <v>1536725</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2281,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2298,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>173</v>
+        <v>600</v>
       </c>
       <c r="D16" s="7">
-        <v>161082</v>
+        <v>595684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>268</v>
+        <v>959</v>
       </c>
       <c r="I16" s="7">
-        <v>283028</v>
+        <v>986706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>441</v>
+        <v>1559</v>
       </c>
       <c r="N16" s="7">
-        <v>444109</v>
+        <v>1582390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2355,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>821</v>
+        <v>2614</v>
       </c>
       <c r="D17" s="7">
-        <v>781140</v>
+        <v>2680859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>729</v>
+        <v>2338</v>
       </c>
       <c r="I17" s="7">
-        <v>755584</v>
+        <v>2392491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1550</v>
+        <v>4952</v>
       </c>
       <c r="N17" s="7">
-        <v>1536725</v>
+        <v>5073351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2421,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2436,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2452,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>600</v>
-      </c>
-      <c r="D19" s="7">
-        <v>595684</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>959</v>
-      </c>
-      <c r="I19" s="7">
-        <v>986706</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1559</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1582389</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2614</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2680860</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2338</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2392492</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4952</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5073351</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203BE488-B6FF-4B51-8713-602605747297}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCF97A1-2BAD-43F4-9BA1-9F31DF211E48}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7">
-        <v>19567</v>
+        <v>131752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="I4" s="7">
-        <v>38098</v>
+        <v>236634</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>56</v>
+        <v>344</v>
       </c>
       <c r="N4" s="7">
-        <v>57666</v>
+        <v>368386</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>98</v>
+        <v>543</v>
       </c>
       <c r="D5" s="7">
-        <v>94365</v>
+        <v>566064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>429</v>
       </c>
       <c r="I5" s="7">
-        <v>73807</v>
+        <v>458542</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>163</v>
+        <v>972</v>
       </c>
       <c r="N5" s="7">
-        <v>168171</v>
+        <v>1024606</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>120</v>
+        <v>668</v>
       </c>
       <c r="D6" s="7">
-        <v>113932</v>
+        <v>697816</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>695176</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2723,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>219</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>225837</v>
+        <v>1392992</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2746,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="D7" s="7">
-        <v>112185</v>
+        <v>210071</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="I7" s="7">
-        <v>198535</v>
+        <v>324129</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="N7" s="7">
-        <v>310721</v>
+        <v>534200</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2797,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>445</v>
+        <v>743</v>
       </c>
       <c r="D8" s="7">
-        <v>471700</v>
+        <v>803469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>364</v>
+        <v>642</v>
       </c>
       <c r="I8" s="7">
-        <v>384736</v>
+        <v>706064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>809</v>
+        <v>1385</v>
       </c>
       <c r="N8" s="7">
-        <v>856435</v>
+        <v>1509533</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>548</v>
+        <v>933</v>
       </c>
       <c r="D9" s="7">
-        <v>583885</v>
+        <v>1013540</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2863,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>583271</v>
+        <v>1030193</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1097</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1167156</v>
+        <v>2043733</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,55 +2895,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>210071</v>
+        <v>100680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>324128</v>
+        <v>219953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>486</v>
+        <v>290</v>
       </c>
       <c r="N10" s="7">
-        <v>534200</v>
+        <v>320633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>743</v>
+        <v>598</v>
       </c>
       <c r="D11" s="7">
-        <v>803469</v>
+        <v>653833</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>642</v>
+        <v>503</v>
       </c>
       <c r="I11" s="7">
-        <v>706064</v>
+        <v>557221</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1385</v>
+        <v>1101</v>
       </c>
       <c r="N11" s="7">
-        <v>1509533</v>
+        <v>1211054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>933</v>
+        <v>686</v>
       </c>
       <c r="D12" s="7">
-        <v>1013540</v>
+        <v>754513</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1030192</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>2043733</v>
+        <v>1531687</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,55 +3050,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="D13" s="7">
-        <v>100680</v>
+        <v>200923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="I13" s="7">
-        <v>219953</v>
+        <v>332951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>290</v>
+        <v>499</v>
       </c>
       <c r="N13" s="7">
-        <v>320633</v>
+        <v>533874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3107,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>598</v>
+        <v>722</v>
       </c>
       <c r="D14" s="7">
-        <v>653833</v>
+        <v>742895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
-        <v>503</v>
+        <v>688</v>
       </c>
       <c r="I14" s="7">
-        <v>557221</v>
+        <v>718950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>1101</v>
+        <v>1410</v>
       </c>
       <c r="N14" s="7">
-        <v>1211054</v>
+        <v>1461845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>686</v>
+        <v>906</v>
       </c>
       <c r="D15" s="7">
-        <v>754513</v>
+        <v>943818</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1391</v>
+        <v>1909</v>
       </c>
       <c r="N15" s="7">
-        <v>1531687</v>
+        <v>1995719</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3205,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>587</v>
+      </c>
+      <c r="D16" s="7">
+        <v>643427</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1032</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1113667</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1619</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1757093</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="7">
-        <v>200923</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="7">
-        <v>315</v>
-      </c>
-      <c r="I16" s="7">
-        <v>332951</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M16" s="7">
-        <v>499</v>
-      </c>
-      <c r="N16" s="7">
-        <v>533874</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>722</v>
+        <v>2606</v>
       </c>
       <c r="D17" s="7">
-        <v>742895</v>
+        <v>2766260</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>688</v>
+        <v>2262</v>
       </c>
       <c r="I17" s="7">
-        <v>718950</v>
+        <v>2440777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1410</v>
+        <v>4868</v>
       </c>
       <c r="N17" s="7">
-        <v>1461845</v>
+        <v>5207038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>906</v>
+        <v>3193</v>
       </c>
       <c r="D18" s="7">
-        <v>943818</v>
+        <v>3409687</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3294</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3554444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1909</v>
+        <v>6487</v>
       </c>
       <c r="N18" s="7">
-        <v>1995719</v>
+        <v>6964131</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3359,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>587</v>
-      </c>
-      <c r="D19" s="7">
-        <v>643427</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1032</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1113667</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1619</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1757093</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2606</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2766261</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2262</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2440777</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4868</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5207038</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3193</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3409688</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3554444</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6487</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6964131</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A4443-CDFE-498A-9577-632E26A5AB47}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40F0293-C8F1-4B0A-9D9C-682E31A9BBA9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="D4" s="7">
-        <v>33062</v>
+        <v>137040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="I4" s="7">
-        <v>33987</v>
+        <v>216432</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="N4" s="7">
-        <v>67050</v>
+        <v>353472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3549,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="D5" s="7">
-        <v>81525</v>
+        <v>532009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="I5" s="7">
-        <v>78272</v>
+        <v>449628</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>162</v>
+        <v>968</v>
       </c>
       <c r="N5" s="7">
-        <v>159796</v>
+        <v>981637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>646</v>
       </c>
       <c r="D6" s="7">
-        <v>114587</v>
+        <v>669049</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>114</v>
+        <v>659</v>
       </c>
       <c r="I6" s="7">
-        <v>112259</v>
+        <v>666060</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>225</v>
+        <v>1305</v>
       </c>
       <c r="N6" s="7">
-        <v>226846</v>
+        <v>1335109</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3653,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D7" s="7">
-        <v>103978</v>
+        <v>189879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="I7" s="7">
-        <v>182444</v>
+        <v>314999</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>274</v>
+        <v>464</v>
       </c>
       <c r="N7" s="7">
-        <v>286422</v>
+        <v>504879</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3704,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>433</v>
+        <v>761</v>
       </c>
       <c r="D8" s="7">
-        <v>450484</v>
+        <v>826086</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>694</v>
       </c>
       <c r="I8" s="7">
-        <v>371357</v>
+        <v>724841</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>806</v>
+        <v>1455</v>
       </c>
       <c r="N8" s="7">
-        <v>821841</v>
+        <v>1550926</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>535</v>
+        <v>945</v>
       </c>
       <c r="D9" s="7">
-        <v>554462</v>
+        <v>1015965</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>545</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>553801</v>
+        <v>1039840</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1080</v>
+        <v>1919</v>
       </c>
       <c r="N9" s="7">
-        <v>1108263</v>
+        <v>2055805</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,55 +3802,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7">
-        <v>189879</v>
+        <v>130331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="I10" s="7">
-        <v>314999</v>
+        <v>206681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>464</v>
+        <v>305</v>
       </c>
       <c r="N10" s="7">
-        <v>504879</v>
+        <v>337012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>761</v>
+        <v>569</v>
       </c>
       <c r="D11" s="7">
-        <v>826086</v>
+        <v>622395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>694</v>
+        <v>547</v>
       </c>
       <c r="I11" s="7">
-        <v>724841</v>
+        <v>571817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>1455</v>
+        <v>1116</v>
       </c>
       <c r="N11" s="7">
-        <v>1550926</v>
+        <v>1194212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>945</v>
+        <v>691</v>
       </c>
       <c r="D12" s="7">
-        <v>1015965</v>
+        <v>752726</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3925,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>730</v>
       </c>
       <c r="I12" s="7">
-        <v>1039840</v>
+        <v>778498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1919</v>
+        <v>1421</v>
       </c>
       <c r="N12" s="7">
-        <v>2055805</v>
+        <v>1531224</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,55 +3957,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D13" s="7">
-        <v>130331</v>
+        <v>168076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="I13" s="7">
-        <v>206681</v>
+        <v>276661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="N13" s="7">
-        <v>337012</v>
+        <v>444737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>569</v>
+        <v>760</v>
       </c>
       <c r="D14" s="7">
-        <v>622395</v>
+        <v>763813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>547</v>
+        <v>716</v>
       </c>
       <c r="I14" s="7">
-        <v>571817</v>
+        <v>760930</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>1116</v>
+        <v>1476</v>
       </c>
       <c r="N14" s="7">
-        <v>1194212</v>
+        <v>1524743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>691</v>
+        <v>926</v>
       </c>
       <c r="D15" s="7">
-        <v>752726</v>
+        <v>931889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4080,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>730</v>
+        <v>953</v>
       </c>
       <c r="I15" s="7">
-        <v>778498</v>
+        <v>1037591</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1421</v>
+        <v>1879</v>
       </c>
       <c r="N15" s="7">
-        <v>1531224</v>
+        <v>1969480</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4112,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>166</v>
+        <v>606</v>
       </c>
       <c r="D16" s="7">
-        <v>168076</v>
+        <v>625326</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>237</v>
+        <v>903</v>
       </c>
       <c r="I16" s="7">
-        <v>276661</v>
+        <v>1014774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>403</v>
+        <v>1509</v>
       </c>
       <c r="N16" s="7">
-        <v>444737</v>
+        <v>1640099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4169,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>760</v>
+        <v>2602</v>
       </c>
       <c r="D17" s="7">
-        <v>763813</v>
+        <v>2744304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
-        <v>716</v>
+        <v>2413</v>
       </c>
       <c r="I17" s="7">
-        <v>760930</v>
+        <v>2507215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
-        <v>1476</v>
+        <v>5015</v>
       </c>
       <c r="N17" s="7">
-        <v>1524743</v>
+        <v>5251519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>926</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>931889</v>
+        <v>3369630</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4235,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>953</v>
+        <v>3316</v>
       </c>
       <c r="I18" s="7">
-        <v>1037591</v>
+        <v>3521989</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4250,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1879</v>
+        <v>6524</v>
       </c>
       <c r="N18" s="7">
-        <v>1969480</v>
+        <v>6891618</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4266,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>606</v>
-      </c>
-      <c r="D19" s="7">
-        <v>625326</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>903</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1014774</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1509</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1640099</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2602</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2744304</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2413</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2507215</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5015</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5251519</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3369630</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3316</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3521989</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6524</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6891618</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84DBCD4-4669-4CEB-9CF7-B32288CEF5D7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC471FDC-772F-482A-B2E4-88863385D30D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="D4" s="7">
-        <v>44711</v>
+        <v>195904</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>116</v>
+        <v>579</v>
       </c>
       <c r="I4" s="7">
-        <v>52253</v>
+        <v>271221</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>173</v>
+        <v>854</v>
       </c>
       <c r="N4" s="7">
-        <v>96964</v>
+        <v>467125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>454</v>
       </c>
       <c r="D5" s="7">
-        <v>57271</v>
+        <v>438806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>127</v>
+        <v>660</v>
       </c>
       <c r="I5" s="7">
-        <v>78480</v>
+        <v>404531</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>188</v>
+        <v>1114</v>
       </c>
       <c r="N5" s="7">
-        <v>135751</v>
+        <v>843338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634710</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4522,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310463</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="D7" s="7">
-        <v>159116</v>
+        <v>229403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>463</v>
+        <v>648</v>
       </c>
       <c r="I7" s="7">
-        <v>236710</v>
+        <v>362999</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>681</v>
+        <v>920</v>
       </c>
       <c r="N7" s="7">
-        <v>395825</v>
+        <v>592402</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>393</v>
+        <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>389947</v>
+        <v>961130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>533</v>
+        <v>865</v>
       </c>
       <c r="I8" s="7">
-        <v>356252</v>
+        <v>593631</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>926</v>
+        <v>1555</v>
       </c>
       <c r="N8" s="7">
-        <v>746200</v>
+        <v>1554761</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>549063</v>
+        <v>1190533</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4677,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>956630</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2475</v>
       </c>
       <c r="N9" s="7">
-        <v>1142025</v>
+        <v>2147163</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,55 +4709,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>241298</v>
+        <v>168779</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>648</v>
+        <v>364</v>
       </c>
       <c r="I10" s="7">
-        <v>396044</v>
+        <v>422594</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>920</v>
+        <v>546</v>
       </c>
       <c r="N10" s="7">
-        <v>637342</v>
+        <v>591373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>690</v>
+        <v>494</v>
       </c>
       <c r="D11" s="7">
-        <v>795365</v>
+        <v>535901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>865</v>
+        <v>682</v>
       </c>
       <c r="I11" s="7">
-        <v>661802</v>
+        <v>510197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>1555</v>
+        <v>1176</v>
       </c>
       <c r="N11" s="7">
-        <v>1457167</v>
+        <v>1046099</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1036663</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1057846</v>
+        <v>932791</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2475</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2094509</v>
+        <v>1637472</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,55 +4864,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="D13" s="7">
-        <v>177651</v>
+        <v>265719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>364</v>
+        <v>707</v>
       </c>
       <c r="I13" s="7">
-        <v>345279</v>
+        <v>413918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>546</v>
+        <v>1028</v>
       </c>
       <c r="N13" s="7">
-        <v>522930</v>
+        <v>679637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>494</v>
+        <v>685</v>
       </c>
       <c r="D14" s="7">
-        <v>551121</v>
+        <v>661112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>682</v>
+        <v>852</v>
       </c>
       <c r="I14" s="7">
-        <v>528482</v>
+        <v>679167</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>1176</v>
+        <v>1537</v>
       </c>
       <c r="N14" s="7">
-        <v>1079602</v>
+        <v>1340279</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4987,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873761</v>
+        <v>1093085</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +5002,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1602532</v>
+        <v>2019916</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5019,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>321</v>
+        <v>1050</v>
       </c>
       <c r="D16" s="7">
-        <v>274094</v>
+        <v>859805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>707</v>
+        <v>2298</v>
       </c>
       <c r="I16" s="7">
-        <v>456867</v>
+        <v>1470732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>1028</v>
+        <v>3348</v>
       </c>
       <c r="N16" s="7">
-        <v>730961</v>
+        <v>2330537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>685</v>
+        <v>2323</v>
       </c>
       <c r="D17" s="7">
-        <v>691309</v>
+        <v>2596949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
-        <v>852</v>
+        <v>3059</v>
       </c>
       <c r="I17" s="7">
-        <v>691328</v>
+        <v>2187527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
-        <v>1537</v>
+        <v>5382</v>
       </c>
       <c r="N17" s="7">
-        <v>1382637</v>
+        <v>4784476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3456754</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5142,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1148195</v>
+        <v>3658259</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5157,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8730</v>
       </c>
       <c r="N18" s="7">
-        <v>2113598</v>
+        <v>7115013</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5173,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1050</v>
-      </c>
-      <c r="D19" s="7">
-        <v>896869</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2298</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1487154</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3348</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2384023</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2323</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2485013</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3059</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2316342</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5382</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4801357</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3381882</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803496</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8730</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7185380</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
